--- a/Measurements/cpu_gpu_pipeline/end_to_end_pipeline_NVIDIA.xlsx
+++ b/Measurements/cpu_gpu_pipeline/end_to_end_pipeline_NVIDIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyum\Coyote_PipeRec_DLRM\Measurements\cpu_gpu_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B4094D-0C90-4EB7-9619-1D3ED74744DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD353D-321D-45F0-A93C-20B4286E5A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{1CBD8072-83D8-4074-A3C3-6AD5C45393D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9825" windowHeight="10905" xr2:uid="{1CBD8072-83D8-4074-A3C3-6AD5C45393D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,21 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5272A7B9-3876-4459-A4CF-EB3D9CBF7796}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,7 +510,7 @@
         <v>183.48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,7 +518,7 @@
         <v>232.08</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,7 +526,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -535,7 +534,7 @@
         <v>168.22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -543,7 +542,7 @@
         <v>551.04</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -552,12 +551,12 @@
         <v>1136.8499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -571,74 +570,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B13">
-        <v>453.58</v>
-      </c>
-      <c r="C13">
-        <v>355.84</v>
-      </c>
-      <c r="D13">
-        <v>97.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4096</v>
+      </c>
+      <c r="B13" s="2">
+        <v>134.88</v>
+      </c>
+      <c r="C13" s="2">
+        <v>95.94</v>
+      </c>
+      <c r="D13" s="2">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B14">
-        <v>267.91000000000003</v>
+        <v>136.88</v>
       </c>
       <c r="C14">
-        <v>180.18</v>
+        <v>49.45</v>
       </c>
       <c r="D14">
-        <v>87.73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>4096</v>
-      </c>
-      <c r="B15" s="2">
-        <v>146.58000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>101.78</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>8192</v>
-      </c>
-      <c r="B16">
-        <v>90.08</v>
-      </c>
-      <c r="C16">
-        <v>49.45</v>
-      </c>
-      <c r="D16">
-        <v>40.630000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
         <v>16384</v>
       </c>
-      <c r="B17">
-        <v>78.27</v>
-      </c>
-      <c r="C17">
-        <v>34.25</v>
-      </c>
-      <c r="D17">
-        <v>44.02</v>
+      <c r="B15">
+        <v>177.29</v>
+      </c>
+      <c r="C15">
+        <v>33.92</v>
+      </c>
+      <c r="D15">
+        <v>143.37</v>
       </c>
     </row>
   </sheetData>
